--- a/publics/user_management.xlsx
+++ b/publics/user_management.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Basic Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Crwal Data" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -116,7 +116,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Alexander Man</t>
+          <t>Alexander Hartman</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
